--- a/grawlix-generator.xlsx
+++ b/grawlix-generator.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{A1AD7005-7913-4847-8757-41F832BD87FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4302E22-BC44-446C-AFBD-AAEB7B9893E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13986" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId3"/>
+    <sheet name="finish" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -592,11 +591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -624,7 +623,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:A257">_xlfn.SEQUENCE(256,1)</f>
+        <f t="array" ref="A2:A256">_xlfn.SEQUENCE(255,1)</f>
         <v>1</v>
       </c>
       <c r="B2" t="str">
@@ -674,7 +673,7 @@
       </c>
       <c r="H4" s="3" t="str">
         <f ca="1">_xlfn.CONCAT(OFFSET(_xlfn.ANCHORARRAY(G7),,1))</f>
-        <v>@@*@$*#*</v>
+        <v>%&amp;^#@@@#</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -726,7 +725,7 @@
       </c>
       <c r="H7" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">IF(ISBLANK(G7),"",INDEX(_xlfn.ANCHORARRAY($E$2),RANDBETWEEN(1,ROWS(_xlfn.ANCHORARRAY($E$2))),1))</f>
-        <v>@</v>
+        <v>%</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -746,7 +745,7 @@
       </c>
       <c r="H8" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">IF(ISBLANK(G8),"",INDEX(_xlfn.ANCHORARRAY($E$2),RANDBETWEEN(1,ROWS(_xlfn.ANCHORARRAY($E$2))),1))</f>
-        <v>@</v>
+        <v>&amp;</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -762,7 +761,7 @@
       </c>
       <c r="H9" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">IF(ISBLANK(G9),"",INDEX(_xlfn.ANCHORARRAY($E$2),RANDBETWEEN(1,ROWS(_xlfn.ANCHORARRAY($E$2))),1))</f>
-        <v>*</v>
+        <v>^</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -778,7 +777,7 @@
       </c>
       <c r="H10" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">IF(ISBLANK(G10),"",INDEX(_xlfn.ANCHORARRAY($E$2),RANDBETWEEN(1,ROWS(_xlfn.ANCHORARRAY($E$2))),1))</f>
-        <v>@</v>
+        <v>#</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -795,7 +794,7 @@
       </c>
       <c r="H11" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">IF(ISBLANK(G11),"",INDEX(_xlfn.ANCHORARRAY($E$2),RANDBETWEEN(1,ROWS(_xlfn.ANCHORARRAY($E$2))),1))</f>
-        <v>$</v>
+        <v>@</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -811,7 +810,7 @@
       </c>
       <c r="H12" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">IF(ISBLANK(G12),"",INDEX(_xlfn.ANCHORARRAY($E$2),RANDBETWEEN(1,ROWS(_xlfn.ANCHORARRAY($E$2))),1))</f>
-        <v>*</v>
+        <v>@</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -827,7 +826,7 @@
       </c>
       <c r="H13" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">IF(ISBLANK(G13),"",INDEX(_xlfn.ANCHORARRAY($E$2),RANDBETWEEN(1,ROWS(_xlfn.ANCHORARRAY($E$2))),1))</f>
-        <v>#</v>
+        <v>@</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -843,7 +842,7 @@
       </c>
       <c r="H14" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">IF(ISBLANK(G14),"",INDEX(_xlfn.ANCHORARRAY($E$2),RANDBETWEEN(1,ROWS(_xlfn.ANCHORARRAY($E$2))),1))</f>
-        <v>*</v>
+        <v>#</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3087,15 +3086,6 @@
       <c r="B256" t="str">
         <f t="shared" si="3"/>
         <v>ÿ</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A257">
-        <v>256</v>
-      </c>
-      <c r="B257" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -3105,18 +3095,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E434C7-3094-4F14-A308-A7F518F9B546}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B116CE7A-A59D-45ED-8D2B-8BC95BB52201}">
   <dimension ref="A1"/>
   <sheetViews>
